--- a/TVELtest/TVELtest/bin/Debug/Табличные выводы/ИБПО (Средний возраст)/ВСЕ ПРЕДПРИЯТИЯ ИБПО_LAR (Средний возраст)(02.09.2015 0-02-18).xlsx
+++ b/TVELtest/TVELtest/bin/Debug/Табличные выводы/ИБПО (Средний возраст)/ВСЕ ПРЕДПРИЯТИЯ ИБПО_LAR (Средний возраст)(02.09.2015 0-02-18).xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergey\Desktop\TVEL_Project\TVELtest\TVELtest\bin\Debug\Табличные выводы\ИБПО (Средний возраст)\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9570"/>
   </bookViews>
@@ -15,17 +10,12 @@
     <sheet name="Мужчины" sheetId="1" r:id="rId1"/>
     <sheet name="Женщины" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="20">
   <si>
     <t>Возрастные группы</t>
   </si>
@@ -82,12 +72,15 @@
   </si>
   <si>
     <t>Взвешенные величины</t>
+  </si>
+  <si>
+    <t>Б</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
     <font>
       <sz val="12"/>
@@ -162,8 +155,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -177,14 +184,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -231,7 +230,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,7 +265,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -443,17 +442,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:G29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -756,16 +757,322 @@
         <v>48.962969409999999</v>
       </c>
     </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickTop="1">
+      <c r="A18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="5">
+        <v>85.958325557732536</v>
+      </c>
+      <c r="C18" s="5">
+        <v>83.395519971242564</v>
+      </c>
+      <c r="D18" s="5">
+        <v>73.396633942407362</v>
+      </c>
+      <c r="E18" s="5">
+        <v>64.572084785157003</v>
+      </c>
+      <c r="F18" s="5">
+        <v>59.777196126175738</v>
+      </c>
+      <c r="G18" s="5">
+        <v>45.013862902344144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="5">
+        <v>86.762460094569789</v>
+      </c>
+      <c r="C19" s="5">
+        <v>81.451964890192826</v>
+      </c>
+      <c r="D19" s="5">
+        <v>72.448442422186218</v>
+      </c>
+      <c r="E19" s="5">
+        <v>66.169414681390577</v>
+      </c>
+      <c r="F19" s="5">
+        <v>59.22877670236214</v>
+      </c>
+      <c r="G19" s="5">
+        <v>45.461825039252837</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="5">
+        <v>87.872939961544418</v>
+      </c>
+      <c r="C20" s="5">
+        <v>80.570963635341755</v>
+      </c>
+      <c r="D20" s="5">
+        <v>72.508331109691156</v>
+      </c>
+      <c r="E20" s="5">
+        <v>67.829578105561723</v>
+      </c>
+      <c r="F20" s="5">
+        <v>57.916212806932307</v>
+      </c>
+      <c r="G20" s="5">
+        <v>45.435436666039081</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="5">
+        <v>88.844605479056113</v>
+      </c>
+      <c r="C21" s="5">
+        <v>82.011136005177406</v>
+      </c>
+      <c r="D21" s="5">
+        <v>74.354350173653273</v>
+      </c>
+      <c r="E21" s="5">
+        <v>69.328512938820779</v>
+      </c>
+      <c r="F21" s="5">
+        <v>60.221072958639908</v>
+      </c>
+      <c r="G21" s="5">
+        <v>47.551833304573883</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="5">
+        <v>89.686406197270884</v>
+      </c>
+      <c r="C22" s="5">
+        <v>81.369767385616314</v>
+      </c>
+      <c r="D22" s="5">
+        <v>74.407063528333737</v>
+      </c>
+      <c r="E22" s="5">
+        <v>70.144483213995017</v>
+      </c>
+      <c r="F22" s="5">
+        <v>57.489272975681459</v>
+      </c>
+      <c r="G22" s="5">
+        <v>46.187265762187948</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="5">
+        <v>91.366338269622815</v>
+      </c>
+      <c r="C23" s="5">
+        <v>81.403537616866856</v>
+      </c>
+      <c r="D23" s="5">
+        <v>75.588704832400452</v>
+      </c>
+      <c r="E23" s="5">
+        <v>74.070170684691462</v>
+      </c>
+      <c r="F23" s="5">
+        <v>55.201152918512399</v>
+      </c>
+      <c r="G23" s="5">
+        <v>46.260969953017657</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="5">
+        <v>93.729712133980115</v>
+      </c>
+      <c r="C24" s="5">
+        <v>81.954177138655538</v>
+      </c>
+      <c r="D24" s="5">
+        <v>77.69418021560378</v>
+      </c>
+      <c r="E24" s="5">
+        <v>81.182598666812808</v>
+      </c>
+      <c r="F24" s="5">
+        <v>55.145747355396018</v>
+      </c>
+      <c r="G24" s="5">
+        <v>48.895215724440156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="5">
+        <v>96.021164138334811</v>
+      </c>
+      <c r="C25" s="5">
+        <v>84.602965707879406</v>
+      </c>
+      <c r="D25" s="5">
+        <v>81.737175125738204</v>
+      </c>
+      <c r="E25" s="5">
+        <v>87.779278895172112</v>
+      </c>
+      <c r="F25" s="5">
+        <v>67.958922689824561</v>
+      </c>
+      <c r="G25" s="5">
+        <v>62.08438672356057</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="5">
+        <v>96.615115890892284</v>
+      </c>
+      <c r="C26" s="5">
+        <v>87.558340188787483</v>
+      </c>
+      <c r="D26" s="5">
+        <v>84.952000139404646</v>
+      </c>
+      <c r="E26" s="5">
+        <v>88.29901065707466</v>
+      </c>
+      <c r="F26" s="5">
+        <v>73.81613784196449</v>
+      </c>
+      <c r="G26" s="5">
+        <v>67.238388377307956</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="5">
+        <v>97.694417615490593</v>
+      </c>
+      <c r="C27" s="5">
+        <v>90.919028325490061</v>
+      </c>
+      <c r="D27" s="5">
+        <v>89.008660650818214</v>
+      </c>
+      <c r="E27" s="5">
+        <v>93.094895651720464</v>
+      </c>
+      <c r="F27" s="5">
+        <v>79.584091713506112</v>
+      </c>
+      <c r="G27" s="5">
+        <v>75.14717847776619</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="5">
+        <v>98.847438534339688</v>
+      </c>
+      <c r="C28" s="5">
+        <v>94.323632019451253</v>
+      </c>
+      <c r="D28" s="5">
+        <v>93.297002703378169</v>
+      </c>
+      <c r="E28" s="5">
+        <v>96.306211248200526</v>
+      </c>
+      <c r="F28" s="5">
+        <v>86.738471585647048</v>
+      </c>
+      <c r="G28" s="5">
+        <v>83.944654043623956</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="6">
+        <v>90.709024229999997</v>
+      </c>
+      <c r="C29" s="6">
+        <v>82.261745160000004</v>
+      </c>
+      <c r="D29" s="6">
+        <v>75.929625959999996</v>
+      </c>
+      <c r="E29" s="6">
+        <v>74.003636479999997</v>
+      </c>
+      <c r="F29" s="6">
+        <v>59.712290609999997</v>
+      </c>
+      <c r="G29" s="6">
+        <v>49.52481341</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:G29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -1068,6 +1375,310 @@
         <v>41.778915869999999</v>
       </c>
     </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickTop="1">
+      <c r="A18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="8">
+        <v>88.283770818585111</v>
+      </c>
+      <c r="C18" s="8">
+        <v>78.153858894955036</v>
+      </c>
+      <c r="D18" s="8">
+        <v>70.809494525638698</v>
+      </c>
+      <c r="E18" s="8">
+        <v>71.289455333969102</v>
+      </c>
+      <c r="F18" s="8">
+        <v>55.601783007895875</v>
+      </c>
+      <c r="G18" s="8">
+        <v>45.428935914707871</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="8">
+        <v>90.264901460811771</v>
+      </c>
+      <c r="C19" s="8">
+        <v>78.592487750417618</v>
+      </c>
+      <c r="D19" s="8">
+        <v>72.451274376038398</v>
+      </c>
+      <c r="E19" s="8">
+        <v>77.062978091244915</v>
+      </c>
+      <c r="F19" s="8">
+        <v>54.570539388408207</v>
+      </c>
+      <c r="G19" s="8">
+        <v>46.945386470889446</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="8">
+        <v>90.294386011083631</v>
+      </c>
+      <c r="C20" s="8">
+        <v>75.793165590521085</v>
+      </c>
+      <c r="D20" s="8">
+        <v>70.083401632215015</v>
+      </c>
+      <c r="E20" s="8">
+        <v>79.197114641736775</v>
+      </c>
+      <c r="F20" s="8">
+        <v>54.168459174025372</v>
+      </c>
+      <c r="G20" s="8">
+        <v>47.420966333854707</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="8">
+        <v>90.460358839248713</v>
+      </c>
+      <c r="C21" s="8">
+        <v>78.339630433100936</v>
+      </c>
+      <c r="D21" s="8">
+        <v>72.361393577420571</v>
+      </c>
+      <c r="E21" s="8">
+        <v>80.204788718387405</v>
+      </c>
+      <c r="F21" s="8">
+        <v>54.002859809792433</v>
+      </c>
+      <c r="G21" s="8">
+        <v>47.651496494276508</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="8">
+        <v>90.214656509654134</v>
+      </c>
+      <c r="C22" s="8">
+        <v>76.651173831318403</v>
+      </c>
+      <c r="D22" s="8">
+        <v>70.767269625443589</v>
+      </c>
+      <c r="E22" s="8">
+        <v>79.238908102600334</v>
+      </c>
+      <c r="F22" s="8">
+        <v>53.1110536187782</v>
+      </c>
+      <c r="G22" s="8">
+        <v>46.622997848664056</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="8">
+        <v>91.945547776098692</v>
+      </c>
+      <c r="C23" s="8">
+        <v>74.022851408501964</v>
+      </c>
+      <c r="D23" s="8">
+        <v>69.51486476283165</v>
+      </c>
+      <c r="E23" s="8">
+        <v>79.822058081330525</v>
+      </c>
+      <c r="F23" s="8">
+        <v>44.919631056389058</v>
+      </c>
+      <c r="G23" s="8">
+        <v>40.338715554551214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="8">
+        <v>92.846025408562468</v>
+      </c>
+      <c r="C24" s="8">
+        <v>69.077000340088645</v>
+      </c>
+      <c r="D24" s="8">
+        <v>65.585666490747954</v>
+      </c>
+      <c r="E24" s="8">
+        <v>79.882484430230818</v>
+      </c>
+      <c r="F24" s="8">
+        <v>38.628271211252951</v>
+      </c>
+      <c r="G24" s="8">
+        <v>35.20312486245259</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="8">
+        <v>94.973927869796285</v>
+      </c>
+      <c r="C25" s="8">
+        <v>77.35126280224641</v>
+      </c>
+      <c r="D25" s="8">
+        <v>74.309081204335243</v>
+      </c>
+      <c r="E25" s="8">
+        <v>83.951057854784878</v>
+      </c>
+      <c r="F25" s="8">
+        <v>57.17182362292214</v>
+      </c>
+      <c r="G25" s="8">
+        <v>51.538406103849589</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="8">
+        <v>96.568967816140372</v>
+      </c>
+      <c r="C26" s="8">
+        <v>79.120247275168865</v>
+      </c>
+      <c r="D26" s="8">
+        <v>76.956626807561619</v>
+      </c>
+      <c r="E26" s="8">
+        <v>88.898865294940421</v>
+      </c>
+      <c r="F26" s="8">
+        <v>60.477741086029205</v>
+      </c>
+      <c r="G26" s="8">
+        <v>56.230723441287473</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="8">
+        <v>95.072853302319885</v>
+      </c>
+      <c r="C27" s="8">
+        <v>82.80557876607709</v>
+      </c>
+      <c r="D27" s="8">
+        <v>79.398082066131607</v>
+      </c>
+      <c r="E27" s="8">
+        <v>78.180818750823121</v>
+      </c>
+      <c r="F27" s="8">
+        <v>66.068190687482286</v>
+      </c>
+      <c r="G27" s="8">
+        <v>55.782271969931188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="8">
+        <v>95.588238254263899</v>
+      </c>
+      <c r="C28" s="8">
+        <v>86.83259519120908</v>
+      </c>
+      <c r="D28" s="8">
+        <v>83.486619881896232</v>
+      </c>
+      <c r="E28" s="8">
+        <v>92.117087576133088</v>
+      </c>
+      <c r="F28" s="8">
+        <v>75.639357490135112</v>
+      </c>
+      <c r="G28" s="8">
+        <v>71.040818975564449</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="9">
+        <v>91.903511179999995</v>
+      </c>
+      <c r="C29" s="9">
+        <v>75.141578030000005</v>
+      </c>
+      <c r="D29" s="9">
+        <v>70.450473770000002</v>
+      </c>
+      <c r="E29" s="9">
+        <v>80.323756849999995</v>
+      </c>
+      <c r="F29" s="9">
+        <v>49.864502899999998</v>
+      </c>
+      <c r="G29" s="9">
+        <v>44.404051219999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TVELtest/TVELtest/bin/Debug/Табличные выводы/ИБПО (Средний возраст)/ВСЕ ПРЕДПРИЯТИЯ ИБПО_LAR (Средний возраст)(02.09.2015 0-02-18).xlsx
+++ b/TVELtest/TVELtest/bin/Debug/Табличные выводы/ИБПО (Средний возраст)/ВСЕ ПРЕДПРИЯТИЯ ИБПО_LAR (Средний возраст)(02.09.2015 0-02-18).xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergey\Desktop\TVEL_Project\TVELtest\TVELtest\bin\Debug\Табличные выводы\ИБПО (Средний возраст)\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9570"/>
   </bookViews>
@@ -10,6 +15,9 @@
     <sheet name="Мужчины" sheetId="1" r:id="rId1"/>
     <sheet name="Женщины" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
@@ -80,7 +88,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1">
     <font>
       <sz val="12"/>
@@ -184,7 +192,9611 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1"/>
+              <a:t>Внешнее</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:t>облучение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t>, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:t>мужчины</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1800" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.5067868209476067E-2"/>
+          <c:y val="0.13030076594989232"/>
+          <c:w val="0.74563745952420157"/>
+          <c:h val="0.71929705260737276"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>84.707890056776492</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85.543274932367808</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86.541480231973438</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87.556243768592978</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88.624797443988243</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90.310620789990494</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92.693579052214446</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95.125684130900709</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95.592804180388555</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96.884907939222444</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>98.364925709597472</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$B$18:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>85.958325557732536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86.762460094569789</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87.872939961544418</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88.844605479056113</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89.686406197270884</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91.366338269622815</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>93.729712133980115</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96.021164138334811</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96.615115890892284</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>97.694417615490593</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>98.847438534339688</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>62.234624033254264</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63.758471644859149</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.318984038811337</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66.768803582622724</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67.926464317459747</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71.492940479053132</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78.351130362128814</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85.232012441441299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85.022291219596184</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90.366882637952088</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>95.127156706919507</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$E$18:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>64.572084785157003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.169414681390577</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.829578105561723</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69.328512938820779</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.144483213995017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74.070170684691462</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81.182598666812808</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87.779278895172112</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88.29901065707466</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>93.094895651720464</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>96.306211248200526</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="338816488"/>
+        <c:axId val="338808256"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="338816488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>Возрастная группа</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="338808256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="338808256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>ИБПО,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+                  <a:t> %</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="338816488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80664865231329475"/>
+          <c:y val="0.13581303046591589"/>
+          <c:w val="0.17709117624405299"/>
+          <c:h val="0.71363970117805897"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1"/>
+              <a:t>Внутреннее</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:t>облучение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t>, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:t>мужчины</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1800" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.5067868209476067E-2"/>
+          <c:y val="0.13030076594989232"/>
+          <c:w val="0.74563745952420157"/>
+          <c:h val="0.71929705260737276"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>83.871807098543414</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81.390711219931788</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80.412421540483933</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.142145603040476</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81.921564694911794</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82.30760469072051</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82.946716306794968</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85.580371921355194</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88.505560946122756</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91.975676591845001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>95.596434108967372</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$C$18:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>83.395519971242564</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81.451964890192826</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80.570963635341755</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.011136005177406</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81.369767385616314</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81.403537616866856</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81.954177138655538</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84.602965707879406</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>87.558340188787483</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90.919028325490061</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>94.323632019451253</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$F$2:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>60.625557881303877</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59.105028834939567</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.717086272043211</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.447035727317576</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58.460698457438106</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56.999785526168196</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56.583892582809419</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68.932061275920091</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>76.161069024968285</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>82.371887936797464</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>88.258357202943145</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$F$18:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>59.777196126175738</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59.22877670236214</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.916212806932307</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.221072958639908</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57.489272975681459</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55.201152918512399</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55.145747355396018</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67.958922689824561</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>73.81613784196449</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79.584091713506112</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>86.738471585647048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="338813744"/>
+        <c:axId val="338815704"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="338813744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>Возрастная группа</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="338815704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="338815704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>ИБПО,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+                  <a:t> %</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="338813744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80664865231329475"/>
+          <c:y val="0.13581303046591589"/>
+          <c:w val="0.17709117624405299"/>
+          <c:h val="0.71363970117805897"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1"/>
+              <a:t>Внешнее и внутреннее</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:t>облучение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t>, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:t>мужчины</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1800" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.5067868209476067E-2"/>
+          <c:y val="0.13030076594989232"/>
+          <c:w val="0.74563745952420157"/>
+          <c:h val="0.71929705260737276"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>72.842548610931345</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71.549043748699205</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.47413511170798</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73.554896166799907</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74.126967741095797</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75.628665601767551</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.856005208602937</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81.984845527711855</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85.035386406550614</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>89.333397988320101</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>94.100700734472909</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$D$18:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>73.396633942407362</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.448442422186218</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72.508331109691156</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74.354350173653273</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74.407063528333737</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75.588704832400452</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.69418021560378</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81.737175125738204</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84.952000139404646</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>89.008660650818214</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>93.297002703378169</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$G$2:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>44.320460555609955</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.241334067602033</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.178431591962394</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46.46713630995977</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.813848882443168</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46.443517835133619</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48.93290181514314</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61.576941427782302</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67.151011415688956</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75.721974600769983</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>84.439829654586902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$G$18:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>45.013862902344144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.461825039252837</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.435436666039081</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47.551833304573883</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46.187265762187948</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46.260969953017657</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48.895215724440156</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62.08438672356057</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67.238388377307956</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75.14717847776619</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>83.944654043623956</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="338817272"/>
+        <c:axId val="338810608"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="338817272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>Возрастная группа</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="338810608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="338810608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>ИБПО,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+                  <a:t> %</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="338817272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80664865231329475"/>
+          <c:y val="0.13581303046591589"/>
+          <c:w val="0.17709117624405299"/>
+          <c:h val="0.71363970117805897"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1"/>
+              <a:t>Внешнее</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:t>облучение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t>, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:t>женщины</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1800" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.5067868209476067E-2"/>
+          <c:y val="0.13030076594989232"/>
+          <c:w val="0.74563745952420157"/>
+          <c:h val="0.71929705260737276"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Женщины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>87.883043020574718</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.618443615240196</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89.231645710619858</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89.106497359712804</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89.5914822385771</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90.97375771715123</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91.583177938550023</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>93.78349661508669</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95.557179028861299</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>93.238388350570091</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>94.650779127332228</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Женщины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$B$18:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>88.283770818585111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.264901460811771</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.294386011083631</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90.460358839248713</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90.214656509654134</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91.945547776098692</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92.846025408562468</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94.973927869796285</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96.568967816140372</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95.072853302319885</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>95.588238254263899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Женщины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>70.587607844657143</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.389762006695761</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.479730984648143</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.568126042653475</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78.121801788501699</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78.170002554632589</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.348905928697576</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80.683784324410425</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>86.359483156043751</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>72.723460878593329</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>86.889479333664113</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Женщины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$E$18:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>71.289455333969102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.062978091244915</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.197114641736775</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.204788718387405</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79.238908102600334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79.822058081330525</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79.882484430230818</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>83.951057854784878</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88.898865294940421</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>78.180818750823121</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>92.117087576133088</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="467825936"/>
+        <c:axId val="467827112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="467825936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>Возрастная группа</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="467827112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="467827112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>ИБПО,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+                  <a:t> %</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="467825936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80664865231329475"/>
+          <c:y val="0.13581303046591589"/>
+          <c:w val="0.17709117624405299"/>
+          <c:h val="0.71363970117805897"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1"/>
+              <a:t>Внутреннее</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:t>облучение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t>, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:t>женщины</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1800" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.5067868209476067E-2"/>
+          <c:y val="0.13030076594989232"/>
+          <c:w val="0.74563745952420157"/>
+          <c:h val="0.71929705260737276"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Женщины!$A$18:$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>78.065042570073643</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.906696278099389</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74.640670514665857</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.057080607380769</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.157146033778943</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72.196245071111974</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66.670077234260276</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>74.810903080117356</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75.630022868883515</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>78.2189583675775</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>78.579793903916226</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Женщины!$A$18:$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$C$18:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>78.153858894955036</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78.592487750417618</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.793165590521085</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78.339630433100936</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.651173831318403</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74.022851408501964</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69.077000340088645</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77.35126280224641</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>79.120247275168865</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>82.80557876607709</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>86.83259519120908</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Женщины!$A$18:$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$F$2:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>55.592006399342608</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.476994703237466</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.63237167908143</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52.167291969104369</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.164142393348371</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.276352120156609</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.040021727555512</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53.150517770251106</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56.254045280117076</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58.403850981868537</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60.667160121719277</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Женщины!$A$18:$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$F$18:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>55.601783007895875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.570539388408207</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.168459174025372</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54.002859809792433</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53.1110536187782</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44.919631056389058</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.628271211252951</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57.17182362292214</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60.477741086029205</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>66.068190687482286</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75.639357490135112</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="340874736"/>
+        <c:axId val="340875520"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="340874736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>Возрастная группа</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="340875520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="340875520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>ИБПО,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+                  <a:t> %</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="340874736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80664865231329475"/>
+          <c:y val="0.13581303046591589"/>
+          <c:w val="0.17709117624405299"/>
+          <c:h val="0.71363970117805897"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1"/>
+              <a:t>Внешнее и внутреннее</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:t>облучение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t>, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:t>женщины</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1800" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.5067868209476067E-2"/>
+          <c:y val="0.13030076594989232"/>
+          <c:w val="0.74563745952420157"/>
+          <c:h val="0.71929705260737276"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Женщины!$A$18:$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>70.479083076586647</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71.457668486791377</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68.472812238546808</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.422793387624409</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69.121533704431371</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67.370046267774953</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62.820391775057395</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71.276012637581431</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>73.060635171663236</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>74.019990326314527</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75.238317568769162</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Женщины!$A$18:$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$D$18:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>70.809494525638698</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.451274376038398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.083401632215015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72.361393577420571</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.767269625443589</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69.51486476283165</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65.585666490747954</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>74.309081204335243</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>76.956626807561619</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79.398082066131607</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>83.486619881896232</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Женщины!$A$18:$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$G$2:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>45.136460395765745</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.528892490119041</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.6487835005954</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.328700512562428</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.751584030326129</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.811791778129667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.598969151736505</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47.150330366403978</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51.663155943163176</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47.908731027181474</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55.579255482569295</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Женщины!$A$18:$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$G$18:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>45.428935914707871</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.945386470889446</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.420966333854707</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47.651496494276508</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46.622997848664056</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40.338715554551214</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.20312486245259</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51.538406103849589</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56.230723441287473</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55.782271969931188</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71.040818975564449</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="340879832"/>
+        <c:axId val="340880224"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="340879832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>Возрастная группа</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="340880224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="340880224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>ИБПО,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+                  <a:t> %</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="340879832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80664865231329475"/>
+          <c:y val="0.13581303046591589"/>
+          <c:w val="0.17709117624405299"/>
+          <c:h val="0.71363970117805897"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>153081</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>181657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>14970</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>48307</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>91170</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>120425</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>153762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>6125</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Мужчины"/>
+      <sheetName val="Женщины"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>18-24</v>
+          </cell>
+          <cell r="B2">
+            <v>68.827520470411287</v>
+          </cell>
+          <cell r="C2">
+            <v>67.681252947861523</v>
+          </cell>
+          <cell r="D2">
+            <v>51.802131113218159</v>
+          </cell>
+          <cell r="E2">
+            <v>47.900636572774026</v>
+          </cell>
+          <cell r="F2">
+            <v>51.635668117770678</v>
+          </cell>
+          <cell r="G2">
+            <v>33.065463181188548</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>25-29</v>
+          </cell>
+          <cell r="B3">
+            <v>78.416402576766473</v>
+          </cell>
+          <cell r="C3">
+            <v>74.676034573394134</v>
+          </cell>
+          <cell r="D3">
+            <v>61.943728082547281</v>
+          </cell>
+          <cell r="E3">
+            <v>58.620832403034264</v>
+          </cell>
+          <cell r="F3">
+            <v>51.381883337352711</v>
+          </cell>
+          <cell r="G3">
+            <v>37.705836301963402</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>30-34</v>
+          </cell>
+          <cell r="B4">
+            <v>79.313836117470061</v>
+          </cell>
+          <cell r="C4">
+            <v>74.710040200926599</v>
+          </cell>
+          <cell r="D4">
+            <v>62.526095910663287</v>
+          </cell>
+          <cell r="E4">
+            <v>55.333795337518566</v>
+          </cell>
+          <cell r="F4">
+            <v>49.105054970266707</v>
+          </cell>
+          <cell r="G4">
+            <v>35.165518607425732</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>35-39</v>
+          </cell>
+          <cell r="B5">
+            <v>83.014290043082354</v>
+          </cell>
+          <cell r="C5">
+            <v>77.389214498731704</v>
+          </cell>
+          <cell r="D5">
+            <v>66.809648870114231</v>
+          </cell>
+          <cell r="E5">
+            <v>59.854633188765042</v>
+          </cell>
+          <cell r="F5">
+            <v>49.97270368442981</v>
+          </cell>
+          <cell r="G5">
+            <v>37.427466929067947</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>40-44</v>
+          </cell>
+          <cell r="B6">
+            <v>85.57158739504149</v>
+          </cell>
+          <cell r="C6">
+            <v>78.243771079154016</v>
+          </cell>
+          <cell r="D6">
+            <v>69.123992083385772</v>
+          </cell>
+          <cell r="E6">
+            <v>65.290772783492329</v>
+          </cell>
+          <cell r="F6">
+            <v>50.391844325516054</v>
+          </cell>
+          <cell r="G6">
+            <v>39.744359798281515</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>45-49</v>
+          </cell>
+          <cell r="B7">
+            <v>87.439881729448089</v>
+          </cell>
+          <cell r="C7">
+            <v>77.725064231294354</v>
+          </cell>
+          <cell r="D7">
+            <v>69.918464363548168</v>
+          </cell>
+          <cell r="E7">
+            <v>67.610589773748742</v>
+          </cell>
+          <cell r="F7">
+            <v>51.700933817690782</v>
+          </cell>
+          <cell r="G7">
+            <v>41.43727316513386</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>50-54</v>
+          </cell>
+          <cell r="B8">
+            <v>90.200040725781093</v>
+          </cell>
+          <cell r="C8">
+            <v>80.887339769172783</v>
+          </cell>
+          <cell r="D8">
+            <v>74.352650462789356</v>
+          </cell>
+          <cell r="E8">
+            <v>72.250775890158025</v>
+          </cell>
+          <cell r="F8">
+            <v>53.605293413633952</v>
+          </cell>
+          <cell r="G8">
+            <v>44.452680619175027</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>55-59</v>
+          </cell>
+          <cell r="B9">
+            <v>85.83942406311435</v>
+          </cell>
+          <cell r="C9">
+            <v>81.802171410255895</v>
+          </cell>
+          <cell r="D9">
+            <v>72.075484353322736</v>
+          </cell>
+          <cell r="E9">
+            <v>68.901565561022537</v>
+          </cell>
+          <cell r="F9">
+            <v>63.837391544809726</v>
+          </cell>
+          <cell r="G9">
+            <v>49.557836047075135</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>60-64</v>
+          </cell>
+          <cell r="B10">
+            <v>64.156537777439951</v>
+          </cell>
+          <cell r="C10">
+            <v>97.465884228156384</v>
+          </cell>
+          <cell r="D10">
+            <v>63.103852922395134</v>
+          </cell>
+          <cell r="E10">
+            <v>61.739039293393205</v>
+          </cell>
+          <cell r="F10">
+            <v>97.465884228156384</v>
+          </cell>
+          <cell r="G10">
+            <v>60.763587094483825</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>65-69</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>70+</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>70.884087942977558</v>
+          </cell>
+          <cell r="C16">
+            <v>67.129983947971638</v>
+          </cell>
+          <cell r="D16">
+            <v>52.620434723482497</v>
+          </cell>
+          <cell r="E16">
+            <v>50.148602333902979</v>
+          </cell>
+          <cell r="F16">
+            <v>50.900114529639431</v>
+          </cell>
+          <cell r="G16">
+            <v>33.798531887741042</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>80.111705385286569</v>
+          </cell>
+          <cell r="C17">
+            <v>74.755069996563464</v>
+          </cell>
+          <cell r="D17">
+            <v>63.05305406564581</v>
+          </cell>
+          <cell r="E17">
+            <v>60.417634070247338</v>
+          </cell>
+          <cell r="F17">
+            <v>51.134308559773672</v>
+          </cell>
+          <cell r="G17">
+            <v>38.302442641359185</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>81.197728349721444</v>
+          </cell>
+          <cell r="C18">
+            <v>74.915951494230896</v>
+          </cell>
+          <cell r="D18">
+            <v>63.840644556605334</v>
+          </cell>
+          <cell r="E18">
+            <v>58.187072233762322</v>
+          </cell>
+          <cell r="F18">
+            <v>49.553187071469111</v>
+          </cell>
+          <cell r="G18">
+            <v>36.540926383927875</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>84.682324185735908</v>
+          </cell>
+          <cell r="C19">
+            <v>77.24914406411618</v>
+          </cell>
+          <cell r="D19">
+            <v>67.778015611408264</v>
+          </cell>
+          <cell r="E19">
+            <v>62.275420271409985</v>
+          </cell>
+          <cell r="F19">
+            <v>49.737737863650622</v>
+          </cell>
+          <cell r="G19">
+            <v>38.22128979577748</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>86.906488466951259</v>
+          </cell>
+          <cell r="C20">
+            <v>77.620603039752908</v>
+          </cell>
+          <cell r="D20">
+            <v>69.493367610986311</v>
+          </cell>
+          <cell r="E20">
+            <v>68.462214578184188</v>
+          </cell>
+          <cell r="F20">
+            <v>49.515776528879705</v>
+          </cell>
+          <cell r="G20">
+            <v>40.318680843558468</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>88.790638182936149</v>
+          </cell>
+          <cell r="C21">
+            <v>76.629341987911587</v>
+          </cell>
+          <cell r="D21">
+            <v>69.869668584982293</v>
+          </cell>
+          <cell r="E21">
+            <v>70.677802530326048</v>
+          </cell>
+          <cell r="F21">
+            <v>49.891055972141857</v>
+          </cell>
+          <cell r="G21">
+            <v>41.334856974976198</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>91.50184936545476</v>
+          </cell>
+          <cell r="C22">
+            <v>79.755596316746079</v>
+          </cell>
+          <cell r="D22">
+            <v>74.254914891094089</v>
+          </cell>
+          <cell r="E22">
+            <v>75.477702584154471</v>
+          </cell>
+          <cell r="F22">
+            <v>52.066516736803166</v>
+          </cell>
+          <cell r="G22">
+            <v>44.532678002463001</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>88.662256174609468</v>
+          </cell>
+          <cell r="C23">
+            <v>80.549889929430378</v>
+          </cell>
+          <cell r="D23">
+            <v>73.027413780103529</v>
+          </cell>
+          <cell r="E23">
+            <v>74.272085741982991</v>
+          </cell>
+          <cell r="F23">
+            <v>62.156562874333638</v>
+          </cell>
+          <cell r="G23">
+            <v>51.144136884894436</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>69.646571129521845</v>
+          </cell>
+          <cell r="C24">
+            <v>97.240592381541248</v>
+          </cell>
+          <cell r="D24">
+            <v>68.296699432556892</v>
+          </cell>
+          <cell r="E24">
+            <v>67.804150390267452</v>
+          </cell>
+          <cell r="F24">
+            <v>97.240592381541248</v>
+          </cell>
+          <cell r="G24">
+            <v>66.52409443571058</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>25-29</v>
+          </cell>
+          <cell r="B3">
+            <v>82.108898202326245</v>
+          </cell>
+          <cell r="C3">
+            <v>85.413338359244989</v>
+          </cell>
+          <cell r="D3">
+            <v>72.011129929071288</v>
+          </cell>
+          <cell r="E3">
+            <v>72.807724668578061</v>
+          </cell>
+          <cell r="F3">
+            <v>82.439829690724082</v>
+          </cell>
+          <cell r="G3">
+            <v>63.032244852614767</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>30-34</v>
+          </cell>
+          <cell r="B4">
+            <v>82.570217792818738</v>
+          </cell>
+          <cell r="C4">
+            <v>69.845024345591767</v>
+          </cell>
+          <cell r="D4">
+            <v>60.870159213515684</v>
+          </cell>
+          <cell r="E4">
+            <v>73.026672002020405</v>
+          </cell>
+          <cell r="F4">
+            <v>54.411662253789274</v>
+          </cell>
+          <cell r="G4">
+            <v>45.305823005741438</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>35-39</v>
+          </cell>
+          <cell r="B5">
+            <v>80.808971130935959</v>
+          </cell>
+          <cell r="C5">
+            <v>69.33818395705724</v>
+          </cell>
+          <cell r="D5">
+            <v>59.534494754315382</v>
+          </cell>
+          <cell r="E5">
+            <v>71.751183315688351</v>
+          </cell>
+          <cell r="F5">
+            <v>52.537229908828138</v>
+          </cell>
+          <cell r="G5">
+            <v>43.532633060289157</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>40-44</v>
+          </cell>
+          <cell r="B6">
+            <v>83.909569651948914</v>
+          </cell>
+          <cell r="C6">
+            <v>79.266421770162168</v>
+          </cell>
+          <cell r="D6">
+            <v>68.807320354846425</v>
+          </cell>
+          <cell r="E6">
+            <v>74.92474403793139</v>
+          </cell>
+          <cell r="F6">
+            <v>71.233968049893676</v>
+          </cell>
+          <cell r="G6">
+            <v>57.520606897569955</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>45-49</v>
+          </cell>
+          <cell r="B7">
+            <v>90.141217126985609</v>
+          </cell>
+          <cell r="C7">
+            <v>71.25195376362143</v>
+          </cell>
+          <cell r="D7">
+            <v>66.10053030175871</v>
+          </cell>
+          <cell r="E7">
+            <v>86.546108281848447</v>
+          </cell>
+          <cell r="F7">
+            <v>57.475768819175656</v>
+          </cell>
+          <cell r="G7">
+            <v>52.761306610570742</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>50-54</v>
+          </cell>
+          <cell r="B8">
+            <v>95.260924648361154</v>
+          </cell>
+          <cell r="C8">
+            <v>86.159685379989483</v>
+          </cell>
+          <cell r="D8">
+            <v>82.618403615215669</v>
+          </cell>
+          <cell r="E8">
+            <v>95.260924648361154</v>
+          </cell>
+          <cell r="F8">
+            <v>86.159685379989483</v>
+          </cell>
+          <cell r="G8">
+            <v>82.618403615215669</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>55-59</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>60-64</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>65-69</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>70+</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>25-29</v>
+          </cell>
+          <cell r="B17">
+            <v>83.102367613100725</v>
+          </cell>
+          <cell r="C17">
+            <v>85.919580871211721</v>
+          </cell>
+          <cell r="D17">
+            <v>73.14132239969868</v>
+          </cell>
+          <cell r="E17">
+            <v>74.629089633404647</v>
+          </cell>
+          <cell r="F17">
+            <v>83.016328404252349</v>
+          </cell>
+          <cell r="G17">
+            <v>64.74397698328319</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>30-34</v>
+          </cell>
+          <cell r="B18">
+            <v>84.216165431069186</v>
+          </cell>
+          <cell r="C18">
+            <v>71.158565423631742</v>
+          </cell>
+          <cell r="D18">
+            <v>62.784830336090131</v>
+          </cell>
+          <cell r="E18">
+            <v>75.885683814452051</v>
+          </cell>
+          <cell r="F18">
+            <v>55.963701664824306</v>
+          </cell>
+          <cell r="G18">
+            <v>47.5136029547795</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>35-39</v>
+          </cell>
+          <cell r="B19">
+            <v>83.085859302112482</v>
+          </cell>
+          <cell r="C19">
+            <v>70.895606264726865</v>
+          </cell>
+          <cell r="D19">
+            <v>61.95388988759796</v>
+          </cell>
+          <cell r="E19">
+            <v>75.347362585766433</v>
+          </cell>
+          <cell r="F19">
+            <v>54.382811601249784</v>
+          </cell>
+          <cell r="G19">
+            <v>46.167804099152164</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>40-44</v>
+          </cell>
+          <cell r="B20">
+            <v>84.791241976990619</v>
+          </cell>
+          <cell r="C20">
+            <v>80.576586489346184</v>
+          </cell>
+          <cell r="D20">
+            <v>70.401303675407348</v>
+          </cell>
+          <cell r="E20">
+            <v>76.186251759422106</v>
+          </cell>
+          <cell r="F20">
+            <v>72.866379918717556</v>
+          </cell>
+          <cell r="G20">
+            <v>59.348687348236211</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>45-49</v>
+          </cell>
+          <cell r="B21">
+            <v>91.063106795593569</v>
+          </cell>
+          <cell r="C21">
+            <v>73.076100149648767</v>
+          </cell>
+          <cell r="D21">
+            <v>68.185759110653578</v>
+          </cell>
+          <cell r="E21">
+            <v>88.583980657137317</v>
+          </cell>
+          <cell r="F21">
+            <v>59.9730602746613</v>
+          </cell>
+          <cell r="G21">
+            <v>55.670062347492049</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>50-54</v>
+          </cell>
+          <cell r="B22">
+            <v>96.052750176564302</v>
+          </cell>
+          <cell r="C22">
+            <v>87.481365454608238</v>
+          </cell>
+          <cell r="D22">
+            <v>84.445532750223407</v>
+          </cell>
+          <cell r="E22">
+            <v>96.052750176564302</v>
+          </cell>
+          <cell r="F22">
+            <v>87.481365454608238</v>
+          </cell>
+          <cell r="G22">
+            <v>84.445532750223407</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -442,18 +10054,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:G29"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1063,15 +10675,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:G29"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1681,5 +11294,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/TVELtest/TVELtest/bin/Debug/Табличные выводы/ИБПО (Средний возраст)/ВСЕ ПРЕДПРИЯТИЯ ИБПО_LAR (Средний возраст)(02.09.2015 0-02-18).xlsx
+++ b/TVELtest/TVELtest/bin/Debug/Табличные выводы/ИБПО (Средний возраст)/ВСЕ ПРЕДПРИЯТИЯ ИБПО_LAR (Средний возраст)(02.09.2015 0-02-18).xlsx
@@ -17,6 +17,8 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="125725"/>
 </workbook>
@@ -237,26 +239,50 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Внешнее</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>облучение</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>, </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>мужчины</a:t>
             </a:r>
-            <a:endParaRPr lang="ru-RU" sz="1800" b="1"/>
+            <a:endParaRPr lang="ru-RU" sz="1800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -269,26 +295,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -297,10 +303,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.5067868209476067E-2"/>
+          <c:x val="7.4748073464986617E-2"/>
           <c:y val="0.13030076594989232"/>
-          <c:w val="0.74563745952420157"/>
-          <c:h val="0.71929705260737276"/>
+          <c:w val="0.72595726272223349"/>
+          <c:h val="0.71929705260737298"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -778,11 +784,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="338816488"/>
-        <c:axId val="338808256"/>
+        <c:axId val="412436072"/>
+        <c:axId val="412437640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="338816488"/>
+        <c:axId val="412436072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -822,7 +828,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Возрастная группа</a:t>
                 </a:r>
               </a:p>
@@ -837,26 +847,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -895,7 +885,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="338808256"/>
+        <c:crossAx val="412437640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -903,11 +893,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="338808256"/>
+        <c:axId val="412437640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -945,8 +934,16 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>ИБПО</a:t>
+                </a:r>
+                <a:r>
                   <a:rPr lang="ru-RU" sz="1100" b="1"/>
-                  <a:t>ИБПО,</a:t>
+                  <a:t>,</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
@@ -965,26 +962,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1017,7 +994,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="338816488"/>
+        <c:crossAx val="412436072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -1036,10 +1013,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.80664865231329475"/>
-          <c:y val="0.13581303046591589"/>
-          <c:w val="0.17709117624405299"/>
-          <c:h val="0.71363970117805897"/>
+          <c:x val="0.80664865231329497"/>
+          <c:y val="0.13581303046591592"/>
+          <c:w val="0.16876830471097479"/>
+          <c:h val="0.78043078469733373"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1102,7 +1079,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1142,26 +1119,50 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Внутреннее</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>облучение</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>, </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>мужчины</a:t>
             </a:r>
-            <a:endParaRPr lang="ru-RU" sz="1800" b="1"/>
+            <a:endParaRPr lang="ru-RU" sz="1800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1174,26 +1175,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1202,10 +1183,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.5067868209476067E-2"/>
+          <c:x val="7.4748073464986617E-2"/>
           <c:y val="0.13030076594989232"/>
-          <c:w val="0.74563745952420157"/>
-          <c:h val="0.71929705260737276"/>
+          <c:w val="0.72595726272223349"/>
+          <c:h val="0.71929705260737298"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1683,11 +1664,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="338813744"/>
-        <c:axId val="338815704"/>
+        <c:axId val="411696312"/>
+        <c:axId val="411694352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="338813744"/>
+        <c:axId val="411696312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1727,7 +1708,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Возрастная группа</a:t>
                 </a:r>
               </a:p>
@@ -1742,26 +1727,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1800,7 +1765,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="338815704"/>
+        <c:crossAx val="411694352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1808,7 +1773,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="338815704"/>
+        <c:axId val="411694352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -1849,8 +1814,16 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>ИБПО</a:t>
+                </a:r>
+                <a:r>
                   <a:rPr lang="ru-RU" sz="1100" b="1"/>
-                  <a:t>ИБПО,</a:t>
+                  <a:t>,</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
@@ -1869,26 +1842,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1921,7 +1874,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="338813744"/>
+        <c:crossAx val="411696312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -1940,10 +1893,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.80664865231329475"/>
-          <c:y val="0.13581303046591589"/>
-          <c:w val="0.17709117624405299"/>
-          <c:h val="0.71363970117805897"/>
+          <c:x val="0.80664865231329497"/>
+          <c:y val="0.13581303046591592"/>
+          <c:w val="0.17043289064522366"/>
+          <c:h val="0.76636949741416249"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2006,7 +1959,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2046,26 +1999,42 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1"/>
-              <a:t>Внешнее и внутреннее</a:t>
+              <a:rPr lang="ru-RU" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Суммарное </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>облучение</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>, </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>мужчины</a:t>
             </a:r>
-            <a:endParaRPr lang="ru-RU" sz="1800" b="1"/>
+            <a:endParaRPr lang="ru-RU" sz="1800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2078,26 +2047,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2106,10 +2055,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.5067868209476067E-2"/>
+          <c:x val="7.4748073464986617E-2"/>
           <c:y val="0.13030076594989232"/>
-          <c:w val="0.74563745952420157"/>
-          <c:h val="0.71929705260737276"/>
+          <c:w val="0.72595726272223349"/>
+          <c:h val="0.71929705260737298"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2188,42 +2137,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Мужчины!$D$2:$D$12</c:f>
+              <c:f>[3]Мужчины!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>72.842548610931345</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>71.549043748699205</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71.47413511170798</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>73.554896166799907</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74.126967741095797</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75.628665601767551</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>77.856005208602937</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>81.984845527711855</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>85.035386406550614</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>89.333397988320101</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>94.100700734472909</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2303,42 +2246,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Мужчины!$D$18:$D$28</c:f>
+              <c:f>[3]Мужчины!$D$18:$D$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>73.396633942407362</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72.448442422186218</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72.508331109691156</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74.354350173653273</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74.407063528333737</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75.588704832400452</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>77.69418021560378</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>81.737175125738204</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>84.952000139404646</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>89.008660650818214</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>93.297002703378169</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2419,42 +2356,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Мужчины!$G$2:$G$12</c:f>
+              <c:f>[3]Мужчины!$G$2:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>44.320460555609955</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44.241334067602033</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44.178431591962394</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46.46713630995977</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45.813848882443168</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46.443517835133619</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>48.93290181514314</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61.576941427782302</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>67.151011415688956</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>75.721974600769983</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>84.439829654586902</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2535,42 +2466,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Мужчины!$G$18:$G$28</c:f>
+              <c:f>[3]Мужчины!$G$18:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>45.013862902344144</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45.461825039252837</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45.435436666039081</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47.551833304573883</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46.187265762187948</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46.260969953017657</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>48.895215724440156</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>62.08438672356057</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>67.238388377307956</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>75.14717847776619</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>83.944654043623956</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2587,11 +2512,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="338817272"/>
-        <c:axId val="338810608"/>
+        <c:axId val="411689256"/>
+        <c:axId val="411688472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="338817272"/>
+        <c:axId val="411689256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2631,7 +2556,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Возрастная группа</a:t>
                 </a:r>
               </a:p>
@@ -2646,26 +2575,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2704,7 +2613,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="338810608"/>
+        <c:crossAx val="411688472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2712,7 +2621,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="338810608"/>
+        <c:axId val="411688472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -2753,14 +2662,26 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>ИБПО,</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t> %</a:t>
                 </a:r>
-                <a:endParaRPr lang="ru-RU" sz="1100" b="1"/>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2773,26 +2694,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2825,7 +2726,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="338817272"/>
+        <c:crossAx val="411689256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -2844,10 +2745,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.80664865231329475"/>
-          <c:y val="0.13581303046591589"/>
-          <c:w val="0.17709117624405299"/>
-          <c:h val="0.71363970117805897"/>
+          <c:x val="0.80664865231329497"/>
+          <c:y val="0.13581303046591592"/>
+          <c:w val="0.17042454068241469"/>
+          <c:h val="0.7766437737556785"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2910,7 +2811,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2950,26 +2851,34 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1"/>
-              <a:t>Внешнее</a:t>
+              <a:rPr lang="ru-RU" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Внешнее и внутреннее облучение</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
-              <a:t>облучение</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>, </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
-              <a:t>женщины</a:t>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>мужчины</a:t>
             </a:r>
-            <a:endParaRPr lang="ru-RU" sz="1800" b="1"/>
+            <a:endParaRPr lang="ru-RU" sz="1800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2982,26 +2891,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3010,10 +2899,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.5067868209476067E-2"/>
+          <c:x val="7.4748073464986617E-2"/>
           <c:y val="0.13030076594989232"/>
-          <c:w val="0.74563745952420157"/>
-          <c:h val="0.71929705260737276"/>
+          <c:w val="0.72595726272223349"/>
+          <c:h val="0.71929705260737298"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3051,7 +2940,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Женщины!$A$2:$A$12</c:f>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -3092,42 +2981,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Женщины!$B$2:$B$12</c:f>
+              <c:f>Мужчины!$D$2:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>87.883043020574718</c:v>
+                  <c:v>72.842548610931345</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>89.618443615240196</c:v>
+                  <c:v>71.549043748699205</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>89.231645710619858</c:v>
+                  <c:v>71.47413511170798</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>89.106497359712804</c:v>
+                  <c:v>73.554896166799907</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>89.5914822385771</c:v>
+                  <c:v>74.126967741095797</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90.97375771715123</c:v>
+                  <c:v>75.628665601767551</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>91.583177938550023</c:v>
+                  <c:v>77.856005208602937</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>93.78349661508669</c:v>
+                  <c:v>81.984845527711855</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>95.557179028861299</c:v>
+                  <c:v>85.035386406550614</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>93.238388350570091</c:v>
+                  <c:v>89.333397988320101</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>94.650779127332228</c:v>
+                  <c:v>94.100700734472909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3166,7 +3055,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Женщины!$A$2:$A$12</c:f>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -3207,42 +3096,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Женщины!$B$18:$B$28</c:f>
+              <c:f>Мужчины!$D$18:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>88.283770818585111</c:v>
+                  <c:v>73.396633942407362</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90.264901460811771</c:v>
+                  <c:v>72.448442422186218</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90.294386011083631</c:v>
+                  <c:v>72.508331109691156</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90.460358839248713</c:v>
+                  <c:v>74.354350173653273</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90.214656509654134</c:v>
+                  <c:v>74.407063528333737</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>91.945547776098692</c:v>
+                  <c:v>75.588704832400452</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>92.846025408562468</c:v>
+                  <c:v>77.69418021560378</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>94.973927869796285</c:v>
+                  <c:v>81.737175125738204</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>96.568967816140372</c:v>
+                  <c:v>84.952000139404646</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>95.072853302319885</c:v>
+                  <c:v>89.008660650818214</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>95.588238254263899</c:v>
+                  <c:v>93.297002703378169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3282,7 +3171,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Женщины!$A$2:$A$12</c:f>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -3323,42 +3212,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Женщины!$E$2:$E$12</c:f>
+              <c:f>Мужчины!$G$2:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>70.587607844657143</c:v>
+                  <c:v>44.320460555609955</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75.389762006695761</c:v>
+                  <c:v>44.241334067602033</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>77.479730984648143</c:v>
+                  <c:v>44.178431591962394</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>77.568126042653475</c:v>
+                  <c:v>46.46713630995977</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>78.121801788501699</c:v>
+                  <c:v>45.813848882443168</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>78.170002554632589</c:v>
+                  <c:v>46.443517835133619</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>77.348905928697576</c:v>
+                  <c:v>48.93290181514314</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80.683784324410425</c:v>
+                  <c:v>61.576941427782302</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>86.359483156043751</c:v>
+                  <c:v>67.151011415688956</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>72.723460878593329</c:v>
+                  <c:v>75.721974600769983</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>86.889479333664113</c:v>
+                  <c:v>84.439829654586902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3398,7 +3287,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Женщины!$A$2:$A$12</c:f>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -3439,42 +3328,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Женщины!$E$18:$E$28</c:f>
+              <c:f>Мужчины!$G$18:$G$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>71.289455333969102</c:v>
+                  <c:v>45.013862902344144</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77.062978091244915</c:v>
+                  <c:v>45.461825039252837</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>79.197114641736775</c:v>
+                  <c:v>45.435436666039081</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80.204788718387405</c:v>
+                  <c:v>47.551833304573883</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>79.238908102600334</c:v>
+                  <c:v>46.187265762187948</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>79.822058081330525</c:v>
+                  <c:v>46.260969953017657</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>79.882484430230818</c:v>
+                  <c:v>48.895215724440156</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>83.951057854784878</c:v>
+                  <c:v>62.08438672356057</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>88.898865294940421</c:v>
+                  <c:v>67.238388377307956</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>78.180818750823121</c:v>
+                  <c:v>75.14717847776619</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>92.117087576133088</c:v>
+                  <c:v>83.944654043623956</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3491,11 +3380,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="467825936"/>
-        <c:axId val="467827112"/>
+        <c:axId val="411689648"/>
+        <c:axId val="411693176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="467825936"/>
+        <c:axId val="411689648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3535,7 +3424,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Возрастная группа</a:t>
                 </a:r>
               </a:p>
@@ -3550,26 +3443,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3608,7 +3481,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467827112"/>
+        <c:crossAx val="411693176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3616,11 +3489,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="467827112"/>
+        <c:axId val="411693176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3658,14 +3530,26 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>ИБПО,</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t> %</a:t>
                 </a:r>
-                <a:endParaRPr lang="ru-RU" sz="1100" b="1"/>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3678,26 +3562,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3730,7 +3594,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467825936"/>
+        <c:crossAx val="411689648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -3749,10 +3613,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.80664865231329475"/>
-          <c:y val="0.13581303046591589"/>
-          <c:w val="0.17709117624405299"/>
-          <c:h val="0.71363970117805897"/>
+          <c:x val="0.80664865231329497"/>
+          <c:y val="0.13581303046591592"/>
+          <c:w val="0.17042454068241469"/>
+          <c:h val="0.7766437737556785"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3815,7 +3679,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3855,26 +3719,50 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1"/>
-              <a:t>Внутреннее</a:t>
+              <a:rPr lang="ru-RU" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Внешнее</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>облучение</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>, </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>женщины</a:t>
             </a:r>
-            <a:endParaRPr lang="ru-RU" sz="1800" b="1"/>
+            <a:endParaRPr lang="ru-RU" sz="1800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3887,26 +3775,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3915,10 +3783,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.5067868209476067E-2"/>
+          <c:x val="7.4748073464986617E-2"/>
           <c:y val="0.13030076594989232"/>
-          <c:w val="0.74563745952420157"/>
-          <c:h val="0.71929705260737276"/>
+          <c:w val="0.72595726272223349"/>
+          <c:h val="0.71929705260737298"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3956,7 +3824,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Женщины!$A$18:$A$28</c:f>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -3997,42 +3865,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Женщины!$C$2:$C$12</c:f>
+              <c:f>Женщины!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>78.065042570073643</c:v>
+                  <c:v>87.883043020574718</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77.906696278099389</c:v>
+                  <c:v>89.618443615240196</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>74.640670514665857</c:v>
+                  <c:v>89.231645710619858</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>77.057080607380769</c:v>
+                  <c:v>89.106497359712804</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75.157146033778943</c:v>
+                  <c:v>89.5914822385771</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72.196245071111974</c:v>
+                  <c:v>90.97375771715123</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>66.670077234260276</c:v>
+                  <c:v>91.583177938550023</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>74.810903080117356</c:v>
+                  <c:v>93.78349661508669</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>75.630022868883515</c:v>
+                  <c:v>95.557179028861299</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>78.2189583675775</c:v>
+                  <c:v>93.238388350570091</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>78.579793903916226</c:v>
+                  <c:v>94.650779127332228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4071,7 +3939,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Женщины!$A$18:$A$28</c:f>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -4112,42 +3980,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Женщины!$C$18:$C$28</c:f>
+              <c:f>Женщины!$B$18:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>78.153858894955036</c:v>
+                  <c:v>88.283770818585111</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78.592487750417618</c:v>
+                  <c:v>90.264901460811771</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75.793165590521085</c:v>
+                  <c:v>90.294386011083631</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>78.339630433100936</c:v>
+                  <c:v>90.460358839248713</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76.651173831318403</c:v>
+                  <c:v>90.214656509654134</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>74.022851408501964</c:v>
+                  <c:v>91.945547776098692</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69.077000340088645</c:v>
+                  <c:v>92.846025408562468</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>77.35126280224641</c:v>
+                  <c:v>94.973927869796285</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>79.120247275168865</c:v>
+                  <c:v>96.568967816140372</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>82.80557876607709</c:v>
+                  <c:v>95.072853302319885</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>86.83259519120908</c:v>
+                  <c:v>95.588238254263899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4187,7 +4055,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Женщины!$A$18:$A$28</c:f>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -4228,42 +4096,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Женщины!$F$2:$F$12</c:f>
+              <c:f>Женщины!$E$2:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>55.592006399342608</c:v>
+                  <c:v>70.587607844657143</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53.476994703237466</c:v>
+                  <c:v>75.389762006695761</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52.63237167908143</c:v>
+                  <c:v>77.479730984648143</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52.167291969104369</c:v>
+                  <c:v>77.568126042653475</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51.164142393348371</c:v>
+                  <c:v>78.121801788501699</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42.276352120156609</c:v>
+                  <c:v>78.170002554632589</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36.040021727555512</c:v>
+                  <c:v>77.348905928697576</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>53.150517770251106</c:v>
+                  <c:v>80.683784324410425</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>56.254045280117076</c:v>
+                  <c:v>86.359483156043751</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>58.403850981868537</c:v>
+                  <c:v>72.723460878593329</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>60.667160121719277</c:v>
+                  <c:v>86.889479333664113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4303,7 +4171,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Женщины!$A$18:$A$28</c:f>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -4344,42 +4212,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Женщины!$F$18:$F$28</c:f>
+              <c:f>Женщины!$E$18:$E$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>55.601783007895875</c:v>
+                  <c:v>71.289455333969102</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54.570539388408207</c:v>
+                  <c:v>77.062978091244915</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54.168459174025372</c:v>
+                  <c:v>79.197114641736775</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54.002859809792433</c:v>
+                  <c:v>80.204788718387405</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>53.1110536187782</c:v>
+                  <c:v>79.238908102600334</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44.919631056389058</c:v>
+                  <c:v>79.822058081330525</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38.628271211252951</c:v>
+                  <c:v>79.882484430230818</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>57.17182362292214</c:v>
+                  <c:v>83.951057854784878</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60.477741086029205</c:v>
+                  <c:v>88.898865294940421</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>66.068190687482286</c:v>
+                  <c:v>78.180818750823121</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>75.639357490135112</c:v>
+                  <c:v>92.117087576133088</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4396,11 +4264,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="340874736"/>
-        <c:axId val="340875520"/>
+        <c:axId val="419261992"/>
+        <c:axId val="419259640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="340874736"/>
+        <c:axId val="419261992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4440,7 +4308,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Возрастная группа</a:t>
                 </a:r>
               </a:p>
@@ -4455,26 +4327,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -4513,7 +4365,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="340875520"/>
+        <c:crossAx val="419259640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4521,7 +4373,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="340875520"/>
+        <c:axId val="419259640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -4562,8 +4414,16 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>ИБПО</a:t>
+                </a:r>
+                <a:r>
                   <a:rPr lang="ru-RU" sz="1100" b="1"/>
-                  <a:t>ИБПО,</a:t>
+                  <a:t>,</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
@@ -4582,26 +4442,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -4634,7 +4474,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="340874736"/>
+        <c:crossAx val="419261992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -4653,10 +4493,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.80664865231329475"/>
-          <c:y val="0.13581303046591589"/>
-          <c:w val="0.17709117624405299"/>
-          <c:h val="0.71363970117805897"/>
+          <c:x val="0.80664865231329497"/>
+          <c:y val="0.13581303046591592"/>
+          <c:w val="0.16876830471097479"/>
+          <c:h val="0.78043078469733373"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4719,7 +4559,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4759,26 +4599,50 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1"/>
-              <a:t>Внешнее и внутреннее</a:t>
+              <a:rPr lang="ru-RU" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Внутреннее</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>облучение</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>, </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>женщины</a:t>
             </a:r>
-            <a:endParaRPr lang="ru-RU" sz="1800" b="1"/>
+            <a:endParaRPr lang="ru-RU" sz="1800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4791,26 +4655,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -4819,10 +4663,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.5067868209476067E-2"/>
+          <c:x val="7.4748073464986617E-2"/>
           <c:y val="0.13030076594989232"/>
-          <c:w val="0.74563745952420157"/>
-          <c:h val="0.71929705260737276"/>
+          <c:w val="0.72595726272223349"/>
+          <c:h val="0.71929705260737298"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -4860,7 +4704,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Женщины!$A$18:$A$28</c:f>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -4901,42 +4745,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Женщины!$D$2:$D$12</c:f>
+              <c:f>Женщины!$C$2:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>70.479083076586647</c:v>
+                  <c:v>78.065042570073643</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>71.457668486791377</c:v>
+                  <c:v>77.906696278099389</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>68.472812238546808</c:v>
+                  <c:v>74.640670514665857</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70.422793387624409</c:v>
+                  <c:v>77.057080607380769</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>69.121533704431371</c:v>
+                  <c:v>75.157146033778943</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>67.370046267774953</c:v>
+                  <c:v>72.196245071111974</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>62.820391775057395</c:v>
+                  <c:v>66.670077234260276</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>71.276012637581431</c:v>
+                  <c:v>74.810903080117356</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>73.060635171663236</c:v>
+                  <c:v>75.630022868883515</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>74.019990326314527</c:v>
+                  <c:v>78.2189583675775</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>75.238317568769162</c:v>
+                  <c:v>78.579793903916226</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4975,7 +4819,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Женщины!$A$18:$A$28</c:f>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -5016,42 +4860,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Женщины!$D$18:$D$28</c:f>
+              <c:f>Женщины!$C$18:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>70.809494525638698</c:v>
+                  <c:v>78.153858894955036</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72.451274376038398</c:v>
+                  <c:v>78.592487750417618</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70.083401632215015</c:v>
+                  <c:v>75.793165590521085</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>72.361393577420571</c:v>
+                  <c:v>78.339630433100936</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>70.767269625443589</c:v>
+                  <c:v>76.651173831318403</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>69.51486476283165</c:v>
+                  <c:v>74.022851408501964</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>65.585666490747954</c:v>
+                  <c:v>69.077000340088645</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>74.309081204335243</c:v>
+                  <c:v>77.35126280224641</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>76.956626807561619</c:v>
+                  <c:v>79.120247275168865</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>79.398082066131607</c:v>
+                  <c:v>82.80557876607709</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>83.486619881896232</c:v>
+                  <c:v>86.83259519120908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5091,7 +4935,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Женщины!$A$18:$A$28</c:f>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -5132,42 +4976,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Женщины!$G$2:$G$12</c:f>
+              <c:f>Женщины!$F$2:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>45.136460395765745</c:v>
+                  <c:v>55.592006399342608</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45.528892490119041</c:v>
+                  <c:v>53.476994703237466</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45.6487835005954</c:v>
+                  <c:v>52.63237167908143</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45.328700512562428</c:v>
+                  <c:v>52.167291969104369</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44.751584030326129</c:v>
+                  <c:v>51.164142393348371</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.811791778129667</c:v>
+                  <c:v>42.276352120156609</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.598969151736505</c:v>
+                  <c:v>36.040021727555512</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47.150330366403978</c:v>
+                  <c:v>53.150517770251106</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>51.663155943163176</c:v>
+                  <c:v>56.254045280117076</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>47.908731027181474</c:v>
+                  <c:v>58.403850981868537</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>55.579255482569295</c:v>
+                  <c:v>60.667160121719277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5207,7 +5051,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Женщины!$A$18:$A$28</c:f>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -5248,42 +5092,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Женщины!$G$18:$G$28</c:f>
+              <c:f>Женщины!$F$18:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>45.428935914707871</c:v>
+                  <c:v>55.601783007895875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.945386470889446</c:v>
+                  <c:v>54.570539388408207</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47.420966333854707</c:v>
+                  <c:v>54.168459174025372</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47.651496494276508</c:v>
+                  <c:v>54.002859809792433</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46.622997848664056</c:v>
+                  <c:v>53.1110536187782</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40.338715554551214</c:v>
+                  <c:v>44.919631056389058</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.20312486245259</c:v>
+                  <c:v>38.628271211252951</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>51.538406103849589</c:v>
+                  <c:v>57.17182362292214</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>56.230723441287473</c:v>
+                  <c:v>60.477741086029205</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>55.782271969931188</c:v>
+                  <c:v>66.068190687482286</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>71.040818975564449</c:v>
+                  <c:v>75.639357490135112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5300,11 +5144,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="340879832"/>
-        <c:axId val="340880224"/>
+        <c:axId val="422404712"/>
+        <c:axId val="422404320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="340879832"/>
+        <c:axId val="422404712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5344,7 +5188,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Возрастная группа</a:t>
                 </a:r>
               </a:p>
@@ -5359,26 +5207,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -5417,7 +5245,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="340880224"/>
+        <c:crossAx val="422404320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5425,7 +5253,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="340880224"/>
+        <c:axId val="422404320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -5466,8 +5294,16 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>ИБПО</a:t>
+                </a:r>
+                <a:r>
                   <a:rPr lang="ru-RU" sz="1100" b="1"/>
-                  <a:t>ИБПО,</a:t>
+                  <a:t>,</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
@@ -5486,26 +5322,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -5538,7 +5354,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="340879832"/>
+        <c:crossAx val="422404712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -5557,10 +5373,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.80664865231329475"/>
-          <c:y val="0.13581303046591589"/>
-          <c:w val="0.17709117624405299"/>
-          <c:h val="0.71363970117805897"/>
+          <c:x val="0.80664865231329497"/>
+          <c:y val="0.13581303046591592"/>
+          <c:w val="0.17043289064522366"/>
+          <c:h val="0.76636949741416249"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -5623,3268 +5439,1730 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Суммарное </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>облучение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>женщины</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.4748073464986617E-2"/>
+          <c:y val="0.13030076594989232"/>
+          <c:w val="0.72595726272223349"/>
+          <c:h val="0.71929705260737298"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[3]Мужчины!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[3]Мужчины!$D$18:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[3]Мужчины!$G$2:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[3]Мужчины!$G$18:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="422405496"/>
+        <c:axId val="422402360"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="422405496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Возрастная группа</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="422402360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="422402360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>ИБПО,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> %</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="422405496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80664865231329497"/>
+          <c:y val="0.13581303046591592"/>
+          <c:w val="0.17042454068241469"/>
+          <c:h val="0.7766437737556785"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Внешнее и внутреннее облучение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>женщины</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.4748073464986617E-2"/>
+          <c:y val="0.13030076594989232"/>
+          <c:w val="0.72595726272223349"/>
+          <c:h val="0.71929705260737298"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>70.479083076586647</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71.457668486791377</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68.472812238546808</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.422793387624409</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69.121533704431371</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67.370046267774953</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62.820391775057395</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71.276012637581431</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>73.060635171663236</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>74.019990326314527</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75.238317568769162</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$D$18:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>70.809494525638698</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.451274376038398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.083401632215015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72.361393577420571</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.767269625443589</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69.51486476283165</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65.585666490747954</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>74.309081204335243</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>76.956626807561619</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79.398082066131607</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>83.486619881896232</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$G$2:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>45.136460395765745</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.528892490119041</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.6487835005954</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.328700512562428</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.751584030326129</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.811791778129667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.598969151736505</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47.150330366403978</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51.663155943163176</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47.908731027181474</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55.579255482569295</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$G$18:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>45.428935914707871</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.945386470889446</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.420966333854707</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47.651496494276508</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46.622997848664056</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40.338715554551214</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.20312486245259</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51.538406103849589</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56.230723441287473</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55.782271969931188</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71.040818975564449</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="422399616"/>
+        <c:axId val="422400008"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="422399616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Возрастная группа</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="422400008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="422400008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>ИБПО,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> %</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="422399616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80664865231329497"/>
+          <c:y val="0.13581303046591592"/>
+          <c:w val="0.17042454068241469"/>
+          <c:h val="0.7766437737556785"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8893,18 +7171,18 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>153081</xdr:rowOff>
+      <xdr:rowOff>102113</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -8924,19 +7202,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>181657</xdr:rowOff>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>14970</xdr:rowOff>
+      <xdr:colOff>33338</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>156542</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvPr id="8" name="Диаграмма 7"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -8958,17 +7236,17 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>48307</xdr:rowOff>
+      <xdr:rowOff>76262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>91170</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>85105</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvPr id="9" name="Диаграмма 8"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -8985,6 +7263,38 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>56963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>65806</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Диаграмма 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8994,18 +7304,18 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>102113</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9025,19 +7335,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>33338</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>120425</xdr:rowOff>
+      <xdr:rowOff>115720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvPr id="8" name="Диаграмма 7"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9058,18 +7368,18 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>153762</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>35440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>6125</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>44283</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvPr id="9" name="Диаграмма 8"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9081,6 +7391,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>16141</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>24984</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Диаграмма 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9102,537 +7444,35 @@
           <cell r="A2" t="str">
             <v>18-24</v>
           </cell>
-          <cell r="B2">
-            <v>68.827520470411287</v>
-          </cell>
-          <cell r="C2">
-            <v>67.681252947861523</v>
-          </cell>
-          <cell r="D2">
-            <v>51.802131113218159</v>
-          </cell>
-          <cell r="E2">
-            <v>47.900636572774026</v>
-          </cell>
-          <cell r="F2">
-            <v>51.635668117770678</v>
-          </cell>
-          <cell r="G2">
-            <v>33.065463181188548</v>
-          </cell>
         </row>
         <row r="3">
           <cell r="A3" t="str">
             <v>25-29</v>
-          </cell>
-          <cell r="B3">
-            <v>78.416402576766473</v>
-          </cell>
-          <cell r="C3">
-            <v>74.676034573394134</v>
-          </cell>
-          <cell r="D3">
-            <v>61.943728082547281</v>
-          </cell>
-          <cell r="E3">
-            <v>58.620832403034264</v>
-          </cell>
-          <cell r="F3">
-            <v>51.381883337352711</v>
-          </cell>
-          <cell r="G3">
-            <v>37.705836301963402</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
             <v>30-34</v>
           </cell>
-          <cell r="B4">
-            <v>79.313836117470061</v>
-          </cell>
-          <cell r="C4">
-            <v>74.710040200926599</v>
-          </cell>
-          <cell r="D4">
-            <v>62.526095910663287</v>
-          </cell>
-          <cell r="E4">
-            <v>55.333795337518566</v>
-          </cell>
-          <cell r="F4">
-            <v>49.105054970266707</v>
-          </cell>
-          <cell r="G4">
-            <v>35.165518607425732</v>
-          </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
             <v>35-39</v>
-          </cell>
-          <cell r="B5">
-            <v>83.014290043082354</v>
-          </cell>
-          <cell r="C5">
-            <v>77.389214498731704</v>
-          </cell>
-          <cell r="D5">
-            <v>66.809648870114231</v>
-          </cell>
-          <cell r="E5">
-            <v>59.854633188765042</v>
-          </cell>
-          <cell r="F5">
-            <v>49.97270368442981</v>
-          </cell>
-          <cell r="G5">
-            <v>37.427466929067947</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
             <v>40-44</v>
           </cell>
-          <cell r="B6">
-            <v>85.57158739504149</v>
-          </cell>
-          <cell r="C6">
-            <v>78.243771079154016</v>
-          </cell>
-          <cell r="D6">
-            <v>69.123992083385772</v>
-          </cell>
-          <cell r="E6">
-            <v>65.290772783492329</v>
-          </cell>
-          <cell r="F6">
-            <v>50.391844325516054</v>
-          </cell>
-          <cell r="G6">
-            <v>39.744359798281515</v>
-          </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
             <v>45-49</v>
           </cell>
-          <cell r="B7">
-            <v>87.439881729448089</v>
-          </cell>
-          <cell r="C7">
-            <v>77.725064231294354</v>
-          </cell>
-          <cell r="D7">
-            <v>69.918464363548168</v>
-          </cell>
-          <cell r="E7">
-            <v>67.610589773748742</v>
-          </cell>
-          <cell r="F7">
-            <v>51.700933817690782</v>
-          </cell>
-          <cell r="G7">
-            <v>41.43727316513386</v>
-          </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
             <v>50-54</v>
-          </cell>
-          <cell r="B8">
-            <v>90.200040725781093</v>
-          </cell>
-          <cell r="C8">
-            <v>80.887339769172783</v>
-          </cell>
-          <cell r="D8">
-            <v>74.352650462789356</v>
-          </cell>
-          <cell r="E8">
-            <v>72.250775890158025</v>
-          </cell>
-          <cell r="F8">
-            <v>53.605293413633952</v>
-          </cell>
-          <cell r="G8">
-            <v>44.452680619175027</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>55-59</v>
-          </cell>
-          <cell r="B9">
-            <v>85.83942406311435</v>
-          </cell>
-          <cell r="C9">
-            <v>81.802171410255895</v>
-          </cell>
-          <cell r="D9">
-            <v>72.075484353322736</v>
-          </cell>
-          <cell r="E9">
-            <v>68.901565561022537</v>
-          </cell>
-          <cell r="F9">
-            <v>63.837391544809726</v>
-          </cell>
-          <cell r="G9">
-            <v>49.557836047075135</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>60-64</v>
-          </cell>
-          <cell r="B10">
-            <v>64.156537777439951</v>
-          </cell>
-          <cell r="C10">
-            <v>97.465884228156384</v>
-          </cell>
-          <cell r="D10">
-            <v>63.103852922395134</v>
-          </cell>
-          <cell r="E10">
-            <v>61.739039293393205</v>
-          </cell>
-          <cell r="F10">
-            <v>97.465884228156384</v>
-          </cell>
-          <cell r="G10">
-            <v>60.763587094483825</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>65-69</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>70+</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>70.884087942977558</v>
-          </cell>
-          <cell r="C16">
-            <v>67.129983947971638</v>
-          </cell>
-          <cell r="D16">
-            <v>52.620434723482497</v>
-          </cell>
-          <cell r="E16">
-            <v>50.148602333902979</v>
-          </cell>
-          <cell r="F16">
-            <v>50.900114529639431</v>
-          </cell>
-          <cell r="G16">
-            <v>33.798531887741042</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>80.111705385286569</v>
-          </cell>
-          <cell r="C17">
-            <v>74.755069996563464</v>
-          </cell>
-          <cell r="D17">
-            <v>63.05305406564581</v>
-          </cell>
-          <cell r="E17">
-            <v>60.417634070247338</v>
-          </cell>
-          <cell r="F17">
-            <v>51.134308559773672</v>
-          </cell>
-          <cell r="G17">
-            <v>38.302442641359185</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>81.197728349721444</v>
-          </cell>
-          <cell r="C18">
-            <v>74.915951494230896</v>
-          </cell>
-          <cell r="D18">
-            <v>63.840644556605334</v>
-          </cell>
-          <cell r="E18">
-            <v>58.187072233762322</v>
-          </cell>
-          <cell r="F18">
-            <v>49.553187071469111</v>
-          </cell>
-          <cell r="G18">
-            <v>36.540926383927875</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>84.682324185735908</v>
-          </cell>
-          <cell r="C19">
-            <v>77.24914406411618</v>
-          </cell>
-          <cell r="D19">
-            <v>67.778015611408264</v>
-          </cell>
-          <cell r="E19">
-            <v>62.275420271409985</v>
-          </cell>
-          <cell r="F19">
-            <v>49.737737863650622</v>
-          </cell>
-          <cell r="G19">
-            <v>38.22128979577748</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>86.906488466951259</v>
-          </cell>
-          <cell r="C20">
-            <v>77.620603039752908</v>
-          </cell>
-          <cell r="D20">
-            <v>69.493367610986311</v>
-          </cell>
-          <cell r="E20">
-            <v>68.462214578184188</v>
-          </cell>
-          <cell r="F20">
-            <v>49.515776528879705</v>
-          </cell>
-          <cell r="G20">
-            <v>40.318680843558468</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>88.790638182936149</v>
-          </cell>
-          <cell r="C21">
-            <v>76.629341987911587</v>
-          </cell>
-          <cell r="D21">
-            <v>69.869668584982293</v>
-          </cell>
-          <cell r="E21">
-            <v>70.677802530326048</v>
-          </cell>
-          <cell r="F21">
-            <v>49.891055972141857</v>
-          </cell>
-          <cell r="G21">
-            <v>41.334856974976198</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>91.50184936545476</v>
-          </cell>
-          <cell r="C22">
-            <v>79.755596316746079</v>
-          </cell>
-          <cell r="D22">
-            <v>74.254914891094089</v>
-          </cell>
-          <cell r="E22">
-            <v>75.477702584154471</v>
-          </cell>
-          <cell r="F22">
-            <v>52.066516736803166</v>
-          </cell>
-          <cell r="G22">
-            <v>44.532678002463001</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>88.662256174609468</v>
-          </cell>
-          <cell r="C23">
-            <v>80.549889929430378</v>
-          </cell>
-          <cell r="D23">
-            <v>73.027413780103529</v>
-          </cell>
-          <cell r="E23">
-            <v>74.272085741982991</v>
-          </cell>
-          <cell r="F23">
-            <v>62.156562874333638</v>
-          </cell>
-          <cell r="G23">
-            <v>51.144136884894436</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>69.646571129521845</v>
-          </cell>
-          <cell r="C24">
-            <v>97.240592381541248</v>
-          </cell>
-          <cell r="D24">
-            <v>68.296699432556892</v>
-          </cell>
-          <cell r="E24">
-            <v>67.804150390267452</v>
-          </cell>
-          <cell r="F24">
-            <v>97.240592381541248</v>
-          </cell>
-          <cell r="G24">
-            <v>66.52409443571058</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>25-29</v>
-          </cell>
-          <cell r="B3">
-            <v>82.108898202326245</v>
-          </cell>
-          <cell r="C3">
-            <v>85.413338359244989</v>
-          </cell>
-          <cell r="D3">
-            <v>72.011129929071288</v>
-          </cell>
-          <cell r="E3">
-            <v>72.807724668578061</v>
-          </cell>
-          <cell r="F3">
-            <v>82.439829690724082</v>
-          </cell>
-          <cell r="G3">
-            <v>63.032244852614767</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>30-34</v>
-          </cell>
-          <cell r="B4">
-            <v>82.570217792818738</v>
-          </cell>
-          <cell r="C4">
-            <v>69.845024345591767</v>
-          </cell>
-          <cell r="D4">
-            <v>60.870159213515684</v>
-          </cell>
-          <cell r="E4">
-            <v>73.026672002020405</v>
-          </cell>
-          <cell r="F4">
-            <v>54.411662253789274</v>
-          </cell>
-          <cell r="G4">
-            <v>45.305823005741438</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>35-39</v>
-          </cell>
-          <cell r="B5">
-            <v>80.808971130935959</v>
-          </cell>
-          <cell r="C5">
-            <v>69.33818395705724</v>
-          </cell>
-          <cell r="D5">
-            <v>59.534494754315382</v>
-          </cell>
-          <cell r="E5">
-            <v>71.751183315688351</v>
-          </cell>
-          <cell r="F5">
-            <v>52.537229908828138</v>
-          </cell>
-          <cell r="G5">
-            <v>43.532633060289157</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>40-44</v>
-          </cell>
-          <cell r="B6">
-            <v>83.909569651948914</v>
-          </cell>
-          <cell r="C6">
-            <v>79.266421770162168</v>
-          </cell>
-          <cell r="D6">
-            <v>68.807320354846425</v>
-          </cell>
-          <cell r="E6">
-            <v>74.92474403793139</v>
-          </cell>
-          <cell r="F6">
-            <v>71.233968049893676</v>
-          </cell>
-          <cell r="G6">
-            <v>57.520606897569955</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>45-49</v>
-          </cell>
-          <cell r="B7">
-            <v>90.141217126985609</v>
-          </cell>
-          <cell r="C7">
-            <v>71.25195376362143</v>
-          </cell>
-          <cell r="D7">
-            <v>66.10053030175871</v>
-          </cell>
-          <cell r="E7">
-            <v>86.546108281848447</v>
-          </cell>
-          <cell r="F7">
-            <v>57.475768819175656</v>
-          </cell>
-          <cell r="G7">
-            <v>52.761306610570742</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>50-54</v>
-          </cell>
-          <cell r="B8">
-            <v>95.260924648361154</v>
-          </cell>
-          <cell r="C8">
-            <v>86.159685379989483</v>
-          </cell>
-          <cell r="D8">
-            <v>82.618403615215669</v>
-          </cell>
-          <cell r="E8">
-            <v>95.260924648361154</v>
-          </cell>
-          <cell r="F8">
-            <v>86.159685379989483</v>
-          </cell>
-          <cell r="G8">
-            <v>82.618403615215669</v>
           </cell>
         </row>
         <row r="9">
@@ -9655,145 +7495,40 @@
             <v>70+</v>
           </cell>
         </row>
-        <row r="17">
-          <cell r="A17" t="str">
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="A3" t="str">
             <v>25-29</v>
-          </cell>
-          <cell r="B17">
-            <v>83.102367613100725</v>
-          </cell>
-          <cell r="C17">
-            <v>85.919580871211721</v>
-          </cell>
-          <cell r="D17">
-            <v>73.14132239969868</v>
-          </cell>
-          <cell r="E17">
-            <v>74.629089633404647</v>
-          </cell>
-          <cell r="F17">
-            <v>83.016328404252349</v>
-          </cell>
-          <cell r="G17">
-            <v>64.74397698328319</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>30-34</v>
-          </cell>
-          <cell r="B18">
-            <v>84.216165431069186</v>
-          </cell>
-          <cell r="C18">
-            <v>71.158565423631742</v>
-          </cell>
-          <cell r="D18">
-            <v>62.784830336090131</v>
-          </cell>
-          <cell r="E18">
-            <v>75.885683814452051</v>
-          </cell>
-          <cell r="F18">
-            <v>55.963701664824306</v>
-          </cell>
-          <cell r="G18">
-            <v>47.5136029547795</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>35-39</v>
-          </cell>
-          <cell r="B19">
-            <v>83.085859302112482</v>
-          </cell>
-          <cell r="C19">
-            <v>70.895606264726865</v>
-          </cell>
-          <cell r="D19">
-            <v>61.95388988759796</v>
-          </cell>
-          <cell r="E19">
-            <v>75.347362585766433</v>
-          </cell>
-          <cell r="F19">
-            <v>54.382811601249784</v>
-          </cell>
-          <cell r="G19">
-            <v>46.167804099152164</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>40-44</v>
-          </cell>
-          <cell r="B20">
-            <v>84.791241976990619</v>
-          </cell>
-          <cell r="C20">
-            <v>80.576586489346184</v>
-          </cell>
-          <cell r="D20">
-            <v>70.401303675407348</v>
-          </cell>
-          <cell r="E20">
-            <v>76.186251759422106</v>
-          </cell>
-          <cell r="F20">
-            <v>72.866379918717556</v>
-          </cell>
-          <cell r="G20">
-            <v>59.348687348236211</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>45-49</v>
-          </cell>
-          <cell r="B21">
-            <v>91.063106795593569</v>
-          </cell>
-          <cell r="C21">
-            <v>73.076100149648767</v>
-          </cell>
-          <cell r="D21">
-            <v>68.185759110653578</v>
-          </cell>
-          <cell r="E21">
-            <v>88.583980657137317</v>
-          </cell>
-          <cell r="F21">
-            <v>59.9730602746613</v>
-          </cell>
-          <cell r="G21">
-            <v>55.670062347492049</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>50-54</v>
-          </cell>
-          <cell r="B22">
-            <v>96.052750176564302</v>
-          </cell>
-          <cell r="C22">
-            <v>87.481365454608238</v>
-          </cell>
-          <cell r="D22">
-            <v>84.445532750223407</v>
-          </cell>
-          <cell r="E22">
-            <v>96.052750176564302</v>
-          </cell>
-          <cell r="F22">
-            <v>87.481365454608238</v>
-          </cell>
-          <cell r="G22">
-            <v>84.445532750223407</v>
           </cell>
         </row>
       </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Мужчины"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Мужчины"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -10064,8 +7799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T30" sqref="T30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10683,8 +8418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U52" sqref="U52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/TVELtest/TVELtest/bin/Debug/Табличные выводы/ИБПО (Средний возраст)/ВСЕ ПРЕДПРИЯТИЯ ИБПО_LAR (Средний возраст)(02.09.2015 0-02-18).xlsx
+++ b/TVELtest/TVELtest/bin/Debug/Табличные выводы/ИБПО (Средний возраст)/ВСЕ ПРЕДПРИЯТИЯ ИБПО_LAR (Средний возраст)(02.09.2015 0-02-18).xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergey\Desktop\TVEL_Project\TVELtest\TVELtest\bin\Debug\Табличные выводы\ИБПО (Средний возраст)\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Мужчины" sheetId="1" r:id="rId1"/>
@@ -18,7 +13,6 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="125725"/>
 </workbook>
@@ -90,7 +84,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
     <font>
       <sz val="12"/>
@@ -207,17 +201,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -287,7 +271,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -296,22 +279,20 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.4748073464986617E-2"/>
+          <c:x val="7.4748073464986631E-2"/>
           <c:y val="0.13030076594989232"/>
           <c:w val="0.72595726272223349"/>
-          <c:h val="0.71929705260737298"/>
+          <c:h val="0.7192970526073732"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -425,7 +406,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -540,7 +520,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -656,7 +635,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -772,27 +750,17 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="412436072"/>
-        <c:axId val="412437640"/>
+        <c:axId val="70871680"/>
+        <c:axId val="70894336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="412436072"/>
+        <c:axId val="70871680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -839,7 +807,6 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -850,7 +817,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -885,20 +851,18 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412437640"/>
+        <c:crossAx val="70894336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="412437640"/>
+        <c:axId val="70894336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -954,7 +918,6 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -965,7 +928,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -994,7 +956,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412436072"/>
+        <c:crossAx val="70871680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -1013,13 +975,12 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.80664865231329497"/>
-          <c:y val="0.13581303046591592"/>
-          <c:w val="0.16876830471097479"/>
-          <c:h val="0.78043078469733373"/>
+          <c:x val="0.8066486523132953"/>
+          <c:y val="0.13581303046591595"/>
+          <c:w val="0.16876830471097481"/>
+          <c:h val="0.78043078469733351"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1050,7 +1011,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1079,7 +1039,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1087,17 +1047,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1167,7 +1117,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1176,22 +1125,20 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.4748073464986617E-2"/>
+          <c:x val="7.4748073464986631E-2"/>
           <c:y val="0.13030076594989232"/>
           <c:w val="0.72595726272223349"/>
-          <c:h val="0.71929705260737298"/>
+          <c:h val="0.7192970526073732"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1305,7 +1252,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1420,7 +1366,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1536,7 +1481,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1652,27 +1596,17 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="411696312"/>
-        <c:axId val="411694352"/>
+        <c:axId val="70853376"/>
+        <c:axId val="70855296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="411696312"/>
+        <c:axId val="70853376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1719,7 +1653,6 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1730,7 +1663,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1765,20 +1697,18 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="411694352"/>
+        <c:crossAx val="70855296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="411694352"/>
+        <c:axId val="70855296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1834,7 +1764,6 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1845,7 +1774,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1874,7 +1802,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="411696312"/>
+        <c:crossAx val="70853376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -1893,13 +1821,12 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.80664865231329497"/>
-          <c:y val="0.13581303046591592"/>
-          <c:w val="0.17043289064522366"/>
-          <c:h val="0.76636949741416249"/>
+          <c:x val="0.8066486523132953"/>
+          <c:y val="0.13581303046591595"/>
+          <c:w val="0.17043289064522371"/>
+          <c:h val="0.76636949741416271"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1930,7 +1857,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1959,7 +1885,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1967,17 +1893,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2039,7 +1955,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2048,22 +1963,20 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.4748073464986617E-2"/>
+          <c:x val="7.4748073464986631E-2"/>
           <c:y val="0.13030076594989232"/>
           <c:w val="0.72595726272223349"/>
-          <c:h val="0.71929705260737298"/>
+          <c:h val="0.7192970526073732"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2137,41 +2050,40 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[3]Мужчины!$D$2:$D$10</c:f>
+              <c:f>[2]Мужчины!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>81.602454412495803</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>77.252076269816513</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>73.300619818311787</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>73.697105659108502</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>75.354346144035077</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>79.145319056290063</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>81.86251536376372</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>85.000050635020585</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>89.701542551865217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2246,41 +2158,40 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[3]Мужчины!$D$18:$D$26</c:f>
+              <c:f>[2]Мужчины!$D$18:$D$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>82.073333772544416</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>78.106611185190175</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>74.390241663702852</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>74.587915526938204</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>75.668657760236883</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>79.182090686140967</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>81.767413769572826</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>84.929557853178636</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>89.691385188686766</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2356,41 +2267,40 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[3]Мужчины!$G$2:$G$10</c:f>
+              <c:f>[2]Мужчины!$G$2:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>58.088891293071995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>48.044935264040298</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>42.235345562297418</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>43.411049350307529</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>45.502586100248458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>48.799674052471055</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>52.383641549972054</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>63.620261428770696</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>78.710212707448392</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2466,61 +2376,51 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[3]Мужчины!$G$18:$G$26</c:f>
+              <c:f>[2]Мужчины!$G$18:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>59.087168261321033</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>49.813663075458201</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>43.745047252098438</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>44.521183227607125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>45.939930605480697</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>48.763657968572794</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>52.270148548678357</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>64.060250635259621</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>78.301609118355572</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="411689256"/>
-        <c:axId val="411688472"/>
+        <c:axId val="73738880"/>
+        <c:axId val="73753344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="411689256"/>
+        <c:axId val="73738880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2567,7 +2467,6 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2578,7 +2477,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2613,20 +2511,18 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="411688472"/>
+        <c:crossAx val="73753344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="411688472"/>
+        <c:axId val="73753344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2686,7 +2582,6 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2697,7 +2592,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2726,7 +2620,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="411689256"/>
+        <c:crossAx val="73738880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -2745,13 +2639,12 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.80664865231329497"/>
-          <c:y val="0.13581303046591592"/>
-          <c:w val="0.17042454068241469"/>
-          <c:h val="0.7766437737556785"/>
+          <c:x val="0.8066486523132953"/>
+          <c:y val="0.13581303046591595"/>
+          <c:w val="0.17042454068241472"/>
+          <c:h val="0.77664377375567872"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2782,7 +2675,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2811,7 +2703,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2819,17 +2711,7 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2883,7 +2765,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2892,22 +2773,20 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.4748073464986617E-2"/>
+          <c:x val="7.4748073464986631E-2"/>
           <c:y val="0.13030076594989232"/>
           <c:w val="0.72595726272223349"/>
-          <c:h val="0.71929705260737298"/>
+          <c:h val="0.7192970526073732"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3021,7 +2900,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3136,7 +3014,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3252,7 +3129,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3368,27 +3244,17 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="411689648"/>
-        <c:axId val="411693176"/>
+        <c:axId val="77431552"/>
+        <c:axId val="77433472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="411689648"/>
+        <c:axId val="77431552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3435,7 +3301,6 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3446,7 +3311,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3481,20 +3345,18 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="411693176"/>
+        <c:crossAx val="77433472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="411693176"/>
+        <c:axId val="77433472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3554,7 +3416,6 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3565,7 +3426,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3594,7 +3454,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="411689648"/>
+        <c:crossAx val="77431552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -3613,13 +3473,12 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.80664865231329497"/>
-          <c:y val="0.13581303046591592"/>
-          <c:w val="0.17042454068241469"/>
-          <c:h val="0.7766437737556785"/>
+          <c:x val="0.8066486523132953"/>
+          <c:y val="0.13581303046591595"/>
+          <c:w val="0.17042454068241472"/>
+          <c:h val="0.77664377375567872"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3650,7 +3509,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3679,7 +3537,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3687,17 +3545,7 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3767,7 +3615,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3776,22 +3623,20 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.4748073464986617E-2"/>
+          <c:x val="7.4748073464986631E-2"/>
           <c:y val="0.13030076594989232"/>
           <c:w val="0.72595726272223349"/>
-          <c:h val="0.71929705260737298"/>
+          <c:h val="0.7192970526073732"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3905,7 +3750,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4020,7 +3864,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4136,7 +3979,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -4252,27 +4094,17 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="419261992"/>
-        <c:axId val="419259640"/>
+        <c:axId val="77802496"/>
+        <c:axId val="77808768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="419261992"/>
+        <c:axId val="77802496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -4319,7 +4151,6 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -4330,7 +4161,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4365,20 +4195,18 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="419259640"/>
+        <c:crossAx val="77808768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="419259640"/>
+        <c:axId val="77808768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -4434,7 +4262,6 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -4445,7 +4272,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4474,7 +4300,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="419261992"/>
+        <c:crossAx val="77802496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -4493,13 +4319,12 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.80664865231329497"/>
-          <c:y val="0.13581303046591592"/>
-          <c:w val="0.16876830471097479"/>
-          <c:h val="0.78043078469733373"/>
+          <c:x val="0.8066486523132953"/>
+          <c:y val="0.13581303046591595"/>
+          <c:w val="0.16876830471097481"/>
+          <c:h val="0.78043078469733351"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4530,7 +4355,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4559,7 +4383,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4567,17 +4391,7 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4647,7 +4461,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4656,22 +4469,20 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.4748073464986617E-2"/>
+          <c:x val="7.4748073464986631E-2"/>
           <c:y val="0.13030076594989232"/>
           <c:w val="0.72595726272223349"/>
-          <c:h val="0.71929705260737298"/>
+          <c:h val="0.7192970526073732"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4785,7 +4596,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4900,7 +4710,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5016,7 +4825,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -5132,27 +4940,17 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="422404712"/>
-        <c:axId val="422404320"/>
+        <c:axId val="77898880"/>
+        <c:axId val="77900800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="422404712"/>
+        <c:axId val="77898880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -5199,7 +4997,6 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -5210,7 +5007,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -5245,20 +5041,18 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422404320"/>
+        <c:crossAx val="77900800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="422404320"/>
+        <c:axId val="77900800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -5314,7 +5108,6 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -5325,7 +5118,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -5354,7 +5146,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422404712"/>
+        <c:crossAx val="77898880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -5373,13 +5165,12 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.80664865231329497"/>
-          <c:y val="0.13581303046591592"/>
-          <c:w val="0.17043289064522366"/>
-          <c:h val="0.76636949741416249"/>
+          <c:x val="0.8066486523132953"/>
+          <c:y val="0.13581303046591595"/>
+          <c:w val="0.17043289064522371"/>
+          <c:h val="0.76636949741416271"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5410,7 +5201,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5439,7 +5229,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5447,17 +5237,7 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -5519,7 +5299,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5528,22 +5307,20 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.4748073464986617E-2"/>
+          <c:x val="7.4748073464986631E-2"/>
           <c:y val="0.13030076594989232"/>
           <c:w val="0.72595726272223349"/>
-          <c:h val="0.71929705260737298"/>
+          <c:h val="0.7192970526073732"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5617,41 +5394,40 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[3]Мужчины!$D$2:$D$10</c:f>
+              <c:f>[2]Мужчины!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>81.602454412495803</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>77.252076269816513</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>73.300619818311787</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>73.697105659108502</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>75.354346144035077</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>79.145319056290063</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>81.86251536376372</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>85.000050635020585</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>89.701542551865217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5726,41 +5502,40 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[3]Мужчины!$D$18:$D$26</c:f>
+              <c:f>[2]Мужчины!$D$18:$D$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>82.073333772544416</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>78.106611185190175</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>74.390241663702852</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>74.587915526938204</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>75.668657760236883</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>79.182090686140967</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>81.767413769572826</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>84.929557853178636</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>89.691385188686766</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5836,41 +5611,40 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[3]Мужчины!$G$2:$G$10</c:f>
+              <c:f>[2]Мужчины!$G$2:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>58.088891293071995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>48.044935264040298</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>42.235345562297418</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>43.411049350307529</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>45.502586100248458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>48.799674052471055</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>52.383641549972054</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>63.620261428770696</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>78.710212707448392</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -5946,61 +5720,51 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[3]Мужчины!$G$18:$G$26</c:f>
+              <c:f>[2]Мужчины!$G$18:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>59.087168261321033</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>49.813663075458201</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>43.745047252098438</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>44.521183227607125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>45.939930605480697</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>48.763657968572794</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>52.270148548678357</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>64.060250635259621</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>78.301609118355572</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="422405496"/>
-        <c:axId val="422402360"/>
+        <c:axId val="77507584"/>
+        <c:axId val="77931648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="422405496"/>
+        <c:axId val="77507584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -6047,7 +5811,6 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -6058,7 +5821,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -6093,20 +5855,18 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422402360"/>
+        <c:crossAx val="77931648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="422402360"/>
+        <c:axId val="77931648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -6166,7 +5926,6 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -6177,7 +5936,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -6206,7 +5964,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422405496"/>
+        <c:crossAx val="77507584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -6225,13 +5983,12 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.80664865231329497"/>
-          <c:y val="0.13581303046591592"/>
-          <c:w val="0.17042454068241469"/>
-          <c:h val="0.7766437737556785"/>
+          <c:x val="0.8066486523132953"/>
+          <c:y val="0.13581303046591595"/>
+          <c:w val="0.17042454068241472"/>
+          <c:h val="0.77664377375567872"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -6262,7 +6019,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6291,7 +6047,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6299,17 +6055,7 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -6363,7 +6109,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -6372,22 +6117,20 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.4748073464986617E-2"/>
+          <c:x val="7.4748073464986631E-2"/>
           <c:y val="0.13030076594989232"/>
           <c:w val="0.72595726272223349"/>
-          <c:h val="0.71929705260737298"/>
+          <c:h val="0.7192970526073732"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -6501,7 +6244,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -6616,7 +6358,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -6732,7 +6473,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -6848,27 +6588,17 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="422399616"/>
-        <c:axId val="422400008"/>
+        <c:axId val="77980416"/>
+        <c:axId val="77982336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="422399616"/>
+        <c:axId val="77980416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -6915,7 +6645,6 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -6926,7 +6655,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -6961,20 +6689,18 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422400008"/>
+        <c:crossAx val="77982336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="422400008"/>
+        <c:axId val="77982336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -7034,7 +6760,6 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -7045,7 +6770,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -7074,7 +6798,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422399616"/>
+        <c:crossAx val="77980416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -7093,13 +6817,12 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.80664865231329497"/>
-          <c:y val="0.13581303046591592"/>
-          <c:w val="0.17042454068241469"/>
-          <c:h val="0.7766437737556785"/>
+          <c:x val="0.8066486523132953"/>
+          <c:y val="0.13581303046591595"/>
+          <c:w val="0.17042454068241472"/>
+          <c:h val="0.77664377375567872"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -7130,7 +6853,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7159,7 +6881,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7432,7 +7154,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Мужчины"/>
@@ -7496,39 +7218,167 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1">
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>25-29</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Мужчины"/>
+      <sheetName val="Женщины"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Мужчины"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="D2">
+            <v>81.602454412495803</v>
+          </cell>
+          <cell r="G2">
+            <v>58.088891293071995</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="D3">
+            <v>77.252076269816513</v>
+          </cell>
+          <cell r="G3">
+            <v>48.044935264040298</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>73.300619818311787</v>
+          </cell>
+          <cell r="G4">
+            <v>42.235345562297418</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>73.697105659108502</v>
+          </cell>
+          <cell r="G5">
+            <v>43.411049350307529</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>75.354346144035077</v>
+          </cell>
+          <cell r="G6">
+            <v>45.502586100248458</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>79.145319056290063</v>
+          </cell>
+          <cell r="G7">
+            <v>48.799674052471055</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8">
+            <v>81.86251536376372</v>
+          </cell>
+          <cell r="G8">
+            <v>52.383641549972054</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9">
+            <v>85.000050635020585</v>
+          </cell>
+          <cell r="G9">
+            <v>63.620261428770696</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="D10">
+            <v>89.701542551865217</v>
+          </cell>
+          <cell r="G10">
+            <v>78.710212707448392</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="D18">
+            <v>82.073333772544416</v>
+          </cell>
+          <cell r="G18">
+            <v>59.087168261321033</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="D19">
+            <v>78.106611185190175</v>
+          </cell>
+          <cell r="G19">
+            <v>49.813663075458201</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="D20">
+            <v>74.390241663702852</v>
+          </cell>
+          <cell r="G20">
+            <v>43.745047252098438</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="D21">
+            <v>74.587915526938204</v>
+          </cell>
+          <cell r="G21">
+            <v>44.521183227607125</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="D22">
+            <v>75.668657760236883</v>
+          </cell>
+          <cell r="G22">
+            <v>45.939930605480697</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="D23">
+            <v>79.182090686140967</v>
+          </cell>
+          <cell r="G23">
+            <v>48.763657968572794</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="D24">
+            <v>81.767413769572826</v>
+          </cell>
+          <cell r="G24">
+            <v>52.270148548678357</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="D25">
+            <v>84.929557853178636</v>
+          </cell>
+          <cell r="G25">
+            <v>64.060250635259621</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="D26">
+            <v>89.691385188686766</v>
+          </cell>
+          <cell r="G26">
+            <v>78.301609118355572</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7789,21 +7639,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="7" max="7" width="5.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
       <c r="A1" s="1" t="s">
@@ -8415,14 +8268,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U52" sqref="U52"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="7" max="7" width="6.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
       <c r="A1" s="1" t="s">
